--- a/bulletin/macroeconomics/static/macroeconomics/tables/gdp_growth.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/gdp_growth.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22216AE1-DD87-470B-8DB6-37DC4929D265}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,8 +23,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,10 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -118,7 +118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -153,7 +153,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -330,69 +330,78 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
